--- a/eda/swingnet_on_testset.xlsx
+++ b/eda/swingnet_on_testset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datathon\eda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80523951-4619-4160-A1AC-4AD79F8224C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39928DB-0E0F-4A71-8898-72A257BEB14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>ngoài trời</t>
   </si>
@@ -106,6 +106,42 @@
   </si>
   <si>
     <t>Backside-8897-2.mov</t>
+  </si>
+  <si>
+    <t>2-&gt;4</t>
+  </si>
+  <si>
+    <t>Backside-8900-8</t>
+  </si>
+  <si>
+    <t>Backside-8900-9</t>
+  </si>
+  <si>
+    <t>test by norm2(Z)</t>
+  </si>
+  <si>
+    <t>4-&gt;6</t>
+  </si>
+  <si>
+    <t>Backside-8896-22</t>
+  </si>
+  <si>
+    <t>6-&gt;8</t>
+  </si>
+  <si>
+    <t>Backside-8895-16</t>
+  </si>
+  <si>
+    <t>Backside-8767-2</t>
+  </si>
+  <si>
+    <t>Backside-8767-4</t>
+  </si>
+  <si>
+    <t>Backside-8751-3</t>
+  </si>
+  <si>
+    <t>Side-6016-4</t>
   </si>
 </sst>
 </file>
@@ -190,11 +226,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -207,13 +240,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,17 +548,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M21"/>
+  <dimension ref="B1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="21.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="14"/>
+    <col min="4" max="4" width="21.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="8.140625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
@@ -513,25 +567,29 @@
     <col min="10" max="10" width="8.7109375" customWidth="1"/>
     <col min="11" max="11" width="8.140625" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>4</v>
       </c>
@@ -557,222 +615,213 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10">
-        <v>1</v>
-      </c>
-      <c r="I3" s="10">
-        <v>1</v>
-      </c>
-      <c r="J3" s="10">
-        <v>1</v>
-      </c>
-      <c r="K3" s="10">
-        <v>1</v>
-      </c>
-      <c r="L3" s="10">
-        <v>1</v>
-      </c>
-      <c r="M3" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="13">
+        <v>593.49114295661002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4">
+        <v>715.64458793960705</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5">
+        <v>666.86791271895095</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7">
+        <v>676.95411979191704</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8">
+        <v>759.59178088233102</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="8"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="2" t="s">
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="17"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1</v>
-      </c>
-      <c r="K8" s="6">
-        <v>1</v>
-      </c>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="M8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
-      <c r="D9" s="5" t="s">
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="17"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19">
+        <v>1</v>
+      </c>
+      <c r="L11" s="19">
+        <v>1</v>
+      </c>
+      <c r="M11" s="20">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5">
+        <v>608.01483148523505</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="17"/>
+      <c r="D12" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="8"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="10">
-        <v>1</v>
-      </c>
-      <c r="K10" s="10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="10">
-        <v>1</v>
-      </c>
-      <c r="M10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
-      <c r="D12" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -781,233 +830,394 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7" t="s">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="17"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1</v>
+      </c>
+      <c r="M13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="18"/>
+      <c r="D15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D16" s="16"/>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16">
+        <v>752.14763500322795</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17">
+        <v>733.11452657550603</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18">
+        <v>570.62925141896199</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19">
+        <v>816.16624405222205</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="18"/>
+      <c r="D20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20">
+        <v>420.27451768708698</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E21" t="s">
         <v>20</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-      <c r="D17" s="7" t="s">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="18"/>
+      <c r="D22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E22" t="s">
         <v>20</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="18"/>
+      <c r="D23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="K18" s="6">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="2" t="s">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="18"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6">
-        <v>1</v>
-      </c>
-      <c r="J19" s="6">
-        <v>1</v>
-      </c>
-      <c r="K19" s="6">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="3" t="s">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="18"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="12" t="s">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="18"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="10">
-        <v>1</v>
-      </c>
-      <c r="G21" s="10">
-        <v>1</v>
-      </c>
-      <c r="H21" s="10">
-        <v>1</v>
-      </c>
-      <c r="I21" s="10">
-        <v>1</v>
-      </c>
-      <c r="J21" s="10">
-        <v>1</v>
-      </c>
-      <c r="K21" s="10">
-        <v>1</v>
-      </c>
-      <c r="L21" s="10">
-        <v>1</v>
-      </c>
-      <c r="M21" s="11">
-        <v>1</v>
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1</v>
+      </c>
+      <c r="I26" s="8">
+        <v>1</v>
+      </c>
+      <c r="J26" s="8">
+        <v>1</v>
+      </c>
+      <c r="K26" s="8">
+        <v>1</v>
+      </c>
+      <c r="L26" s="8">
+        <v>1</v>
+      </c>
+      <c r="M26" s="9">
+        <v>1</v>
+      </c>
+      <c r="N26" s="13">
+        <v>434.76440464220701</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
+  <mergeCells count="9">
     <mergeCell ref="F1:M1"/>
-    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D12:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
